--- a/test/经目_模板.xlsx
+++ b/test/经目_模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24400" windowHeight="15360"/>
+    <workbookView xWindow="-32980" yWindow="5020" windowWidth="24400" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>HUNZ0004</t>
   </si>
@@ -113,6 +113,14 @@
   </si>
   <si>
     <t>思维要略法</t>
+  </si>
+  <si>
+    <t>QL0528</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维要略法2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -122,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -152,6 +160,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -229,7 +251,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +277,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -319,7 +353,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 3" xfId="7"/>
     <cellStyle name="常规 4" xfId="5"/>
@@ -328,6 +362,10 @@
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="常规 8" xfId="2"/>
     <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,16 +702,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -681,11 +719,11 @@
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
@@ -707,11 +745,11 @@
       <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -723,17 +761,17 @@
         <v>24</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="6"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -745,7 +783,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -753,11 +791,11 @@
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="12">
         <v>3</v>
@@ -771,16 +809,17 @@
       <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="15">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
@@ -794,16 +833,17 @@
       <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="15">
       <c r="A6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>
@@ -815,6 +855,27 @@
         <v>154</v>
       </c>
       <c r="G6" s="18"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>154</v>
+      </c>
+      <c r="F7" s="17">
+        <v>154</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
